--- a/s1.xlsx
+++ b/s1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HTML\HSPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="75gqaSVbA8EXGwVFPJcj0cQYqT9chUBJYInG99p9swB9TApMLI725Qz1hKOfCEqhfRbN/K8S38Vb0kJhjOf6VQ==" workbookSaltValue="Q8mbzLc/r4NncPVrIxBGkA==" workbookSpinCount="100000" lockStructure="1"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="eH3g02OGuLGoMRFTjLwX3Tpq+TJ+FHK9UYGwd2PhngmYuPJUQgdwgAcpUO0XrUJ8+XDVRa8inkShJs2sLi5DEQ==" workbookSaltValue="kfoxu2MYN9HZ5LVUrQ8VLQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="1" activeTab="1"/>
   </bookViews>
@@ -1629,8 +1629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z71"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView topLeftCell="G43" workbookViewId="0">
+      <selection activeCell="P73" sqref="P73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1754,6 +1754,9 @@
       <c r="T2" t="s">
         <v>27</v>
       </c>
+      <c r="Z2">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -1789,6 +1792,9 @@
       <c r="T3" t="s">
         <v>34</v>
       </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -1823,6 +1829,9 @@
       </c>
       <c r="T4" t="s">
         <v>38</v>
+      </c>
+      <c r="Z4">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
@@ -1859,6 +1868,9 @@
       <c r="T5" t="s">
         <v>42</v>
       </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -1894,6 +1906,9 @@
       <c r="T6" t="s">
         <v>46</v>
       </c>
+      <c r="Z6">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -1929,6 +1944,9 @@
       <c r="T7" t="s">
         <v>52</v>
       </c>
+      <c r="Z7">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -1964,6 +1982,9 @@
       <c r="T8" t="s">
         <v>53</v>
       </c>
+      <c r="Z8">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -1999,6 +2020,9 @@
       <c r="T9" t="s">
         <v>54</v>
       </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -2034,6 +2058,9 @@
       <c r="T10" t="s">
         <v>55</v>
       </c>
+      <c r="Z10">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -2069,6 +2096,9 @@
       <c r="T11" t="s">
         <v>56</v>
       </c>
+      <c r="Z11">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -2104,6 +2134,9 @@
       <c r="T12" t="s">
         <v>75</v>
       </c>
+      <c r="Z12">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -2139,6 +2172,9 @@
       <c r="T13" t="s">
         <v>76</v>
       </c>
+      <c r="Z13">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -2174,6 +2210,9 @@
       <c r="T14" t="s">
         <v>77</v>
       </c>
+      <c r="Z14">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -2209,6 +2248,9 @@
       <c r="T15" t="s">
         <v>80</v>
       </c>
+      <c r="Z15">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -2244,8 +2286,11 @@
       <c r="T16" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="Z16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2279,8 +2324,11 @@
       <c r="T17" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="Z17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2314,8 +2362,11 @@
       <c r="T18" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="Z18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2349,8 +2400,11 @@
       <c r="T19" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="Z19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2384,8 +2438,11 @@
       <c r="T20" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="Z20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2419,8 +2476,11 @@
       <c r="T21" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="Z21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2451,8 +2511,11 @@
       <c r="N22" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="Z22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2483,8 +2546,11 @@
       <c r="N23" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="Z23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2515,8 +2581,11 @@
       <c r="N24" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="Z24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2547,8 +2616,11 @@
       <c r="N25" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="Z25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2579,8 +2651,11 @@
       <c r="N26" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="Z26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2611,8 +2686,11 @@
       <c r="N27" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="Z27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2643,8 +2721,11 @@
       <c r="N28" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="Z28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2675,8 +2756,11 @@
       <c r="N29" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="Z29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2707,8 +2791,11 @@
       <c r="Q30" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="Z30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2739,8 +2826,11 @@
       <c r="Q31" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="Z31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2771,8 +2861,11 @@
       <c r="Q32" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Z32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2803,8 +2896,11 @@
       <c r="Q33" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Z33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2832,8 +2928,11 @@
       <c r="Q34" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Z34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2861,8 +2960,11 @@
       <c r="Q35" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Z35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2893,8 +2995,11 @@
       <c r="N36" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Z36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2925,8 +3030,11 @@
       <c r="N37" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Z37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2957,8 +3065,11 @@
       <c r="N38" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Z38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2989,8 +3100,11 @@
       <c r="N39" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Z39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3021,8 +3135,11 @@
       <c r="N40" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Z40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3053,8 +3170,11 @@
       <c r="N41" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Z41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3085,8 +3205,11 @@
       <c r="N42" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Z42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3117,8 +3240,11 @@
       <c r="N43" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Z43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3149,8 +3275,11 @@
       <c r="N44" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Z44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3181,8 +3310,11 @@
       <c r="K45" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Z45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3213,8 +3345,11 @@
       <c r="K46" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Z46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3245,8 +3380,11 @@
       <c r="K47" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Z47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3277,8 +3415,11 @@
       <c r="K48" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Z48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3309,8 +3450,11 @@
       <c r="K49" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Z49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3341,8 +3485,11 @@
       <c r="K50" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Z50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3373,8 +3520,11 @@
       <c r="K51" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Z51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3408,8 +3558,11 @@
       <c r="K52" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Z52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3443,8 +3596,11 @@
       <c r="K53" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Z53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3478,8 +3634,11 @@
       <c r="K54" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Z54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3513,8 +3672,11 @@
       <c r="K55" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Z55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3548,8 +3710,11 @@
       <c r="K56" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3583,8 +3748,11 @@
       <c r="K57" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Z57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3618,8 +3786,11 @@
       <c r="K58" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Z58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3653,8 +3824,11 @@
       <c r="K59" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Z59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3688,8 +3862,11 @@
       <c r="K60" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Z60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3723,8 +3900,11 @@
       <c r="K61" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Z61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3758,8 +3938,11 @@
       <c r="K62" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Z62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3793,8 +3976,11 @@
       <c r="K63" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Z63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3828,8 +4014,11 @@
       <c r="K64" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Z64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3863,8 +4052,11 @@
       <c r="K65" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Z65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3898,8 +4090,11 @@
       <c r="K66" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Z66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3933,8 +4128,11 @@
       <c r="K67" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Z67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3968,8 +4166,11 @@
       <c r="K68" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Z68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4003,8 +4204,11 @@
       <c r="K69" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Z69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4038,8 +4242,11 @@
       <c r="K70" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Z70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4072,6 +4279,9 @@
       </c>
       <c r="K71" t="s">
         <v>315</v>
+      </c>
+      <c r="Z71">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -4084,7 +4294,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>

--- a/s1.xlsx
+++ b/s1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HTML\HSPT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="eH3g02OGuLGoMRFTjLwX3Tpq+TJ+FHK9UYGwd2PhngmYuPJUQgdwgAcpUO0XrUJ8+XDVRa8inkShJs2sLi5DEQ==" workbookSaltValue="kfoxu2MYN9HZ5LVUrQ8VLQ==" workbookSpinCount="100000" lockStructure="1"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="w1e87btJT0M4eSfvJiQYDFhog6R6UR6S/EV4PhPVDzos68jzPh35h8F9GhQFJLt4xlh8Cs4yIWNapBK8BXVZ4A==" workbookSaltValue="psdFIEPqUipKyX2/WSP1uw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="1" activeTab="1"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="317">
   <si>
     <t>no</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,10 +113,6 @@
   </si>
   <si>
     <t>iswithp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1294,6 +1290,10 @@
   </si>
   <si>
     <t>Hansel and Gretel sleep.&lt;br&gt;An old woman looks at &lt;ins&gt;them&lt;/ins&gt;.&lt;br&gt;She is a bad witch.&lt;br&gt;It is morning.&lt;br&gt;Gretel is surprised.&lt;br&gt;Hansel is in a cage.&lt;br&gt;She is scared and cooks the food.&lt;br&gt;The witch goes to the cage.&lt;br&gt;“Show me your finger.”&lt;br&gt;Hansel shows a bone.&lt;br&gt;“You are &lt;ins&gt;not fat&lt;/ins&gt;.”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>score</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1627,2660 +1627,2873 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z71"/>
+  <dimension ref="A1:AA71"/>
   <sheetViews>
-    <sheetView topLeftCell="G43" workbookViewId="0">
-      <selection activeCell="P73" sqref="P73"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.375" customWidth="1"/>
+    <col min="4" max="4" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>29</v>
-      </c>
       <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
       <c r="F1" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="G1" t="s">
-        <v>2</v>
+        <v>105</v>
       </c>
       <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
       <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
-        <v>5</v>
-      </c>
       <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>9</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>10</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>14</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>15</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>16</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>17</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>18</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>207</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="P2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="P3" t="s">
         <v>30</v>
       </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>208</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-      <c r="O2" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>26</v>
-      </c>
-      <c r="T2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
+      <c r="Q3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>208</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
-      <c r="O3" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>33</v>
-      </c>
-      <c r="T3" t="s">
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="P4" t="s">
         <v>34</v>
       </c>
-      <c r="Z3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>208</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>35</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="U4" t="s">
         <v>37</v>
       </c>
-      <c r="T4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>208</v>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="O5" t="s">
+        <v>207</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="P5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q5" t="s">
         <v>39</v>
       </c>
-      <c r="P5" t="s">
+      <c r="R5" t="s">
         <v>40</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="U5" t="s">
         <v>41</v>
       </c>
-      <c r="T5" t="s">
+      <c r="AA5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>207</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="P6" t="s">
         <v>42</v>
       </c>
-      <c r="Z5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>208</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6">
-        <v>3</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="Q6" t="s">
         <v>43</v>
       </c>
-      <c r="P6" t="s">
+      <c r="R6" t="s">
         <v>44</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="U6" t="s">
         <v>45</v>
       </c>
-      <c r="T6" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H7" t="s">
         <v>47</v>
       </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7" t="s">
         <v>48</v>
       </c>
-      <c r="H7">
-        <v>3</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>49</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>50</v>
       </c>
-      <c r="K7" t="s">
+      <c r="U7" t="s">
         <v>51</v>
       </c>
-      <c r="T7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>207</v>
+      </c>
+      <c r="H8" t="s">
         <v>47</v>
       </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>208</v>
-      </c>
-      <c r="G8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="I8" t="s">
-        <v>50</v>
+      <c r="I8">
+        <v>3</v>
       </c>
       <c r="J8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" t="s">
         <v>57</v>
       </c>
-      <c r="K8" t="s">
-        <v>58</v>
-      </c>
-      <c r="T8" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="U8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>207</v>
+      </c>
+      <c r="H9" t="s">
         <v>47</v>
       </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>208</v>
-      </c>
-      <c r="G9" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9">
-        <v>3</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" t="s">
         <v>59</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>60</v>
       </c>
-      <c r="K9" t="s">
-        <v>61</v>
-      </c>
-      <c r="T9" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z9">
+      <c r="U9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>207</v>
+      </c>
+      <c r="H10" t="s">
         <v>47</v>
       </c>
-      <c r="D10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>208</v>
-      </c>
-      <c r="G10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10">
-        <v>3</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" t="s">
         <v>62</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>63</v>
       </c>
-      <c r="K10" t="s">
-        <v>64</v>
-      </c>
-      <c r="T10" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="U10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>207</v>
+      </c>
+      <c r="H11" t="s">
         <v>47</v>
       </c>
-      <c r="D11" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11" t="s">
-        <v>208</v>
-      </c>
-      <c r="G11" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11">
-        <v>3</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" t="s">
         <v>65</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>66</v>
       </c>
-      <c r="K11" t="s">
-        <v>67</v>
-      </c>
-      <c r="T11" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="U11" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
         <v>71</v>
       </c>
-      <c r="D12" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" t="s">
-        <v>107</v>
-      </c>
-      <c r="H12">
-        <v>3</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="H12" t="s">
+        <v>106</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12" t="s">
         <v>68</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L12" t="s">
         <v>69</v>
       </c>
-      <c r="K12" t="s">
-        <v>70</v>
-      </c>
-      <c r="T12" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="U12" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" t="s">
-        <v>73</v>
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>108</v>
-      </c>
-      <c r="H13">
-        <v>3</v>
-      </c>
-      <c r="I13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" t="s">
+        <v>107</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" t="s">
         <v>68</v>
       </c>
-      <c r="J13" t="s">
+      <c r="L13" t="s">
         <v>69</v>
       </c>
-      <c r="K13" t="s">
-        <v>70</v>
-      </c>
-      <c r="T13" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="U13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" t="s">
-        <v>74</v>
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>109</v>
-      </c>
-      <c r="H14">
-        <v>3</v>
-      </c>
-      <c r="I14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14" t="s">
+        <v>67</v>
+      </c>
+      <c r="K14" t="s">
         <v>68</v>
       </c>
-      <c r="J14" t="s">
+      <c r="L14" t="s">
         <v>69</v>
       </c>
-      <c r="K14" t="s">
-        <v>70</v>
-      </c>
-      <c r="T14" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="U14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" t="s">
-        <v>78</v>
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>110</v>
-      </c>
-      <c r="H15">
-        <v>3</v>
-      </c>
-      <c r="I15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" t="s">
+        <v>109</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15" t="s">
+        <v>67</v>
+      </c>
+      <c r="K15" t="s">
         <v>68</v>
       </c>
-      <c r="J15" t="s">
+      <c r="L15" t="s">
         <v>69</v>
       </c>
-      <c r="K15" t="s">
-        <v>70</v>
-      </c>
-      <c r="T15" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="U15" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F16" t="s">
-        <v>79</v>
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>111</v>
-      </c>
-      <c r="H16">
-        <v>3</v>
-      </c>
-      <c r="I16" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" t="s">
+        <v>110</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16" t="s">
+        <v>67</v>
+      </c>
+      <c r="K16" t="s">
         <v>68</v>
       </c>
-      <c r="J16" t="s">
+      <c r="L16" t="s">
         <v>69</v>
       </c>
-      <c r="K16" t="s">
-        <v>70</v>
-      </c>
-      <c r="T16" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="U16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" t="b">
-        <v>0</v>
-      </c>
-      <c r="F17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" t="s">
+        <v>113</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17" t="s">
         <v>82</v>
       </c>
-      <c r="G17" t="s">
-        <v>114</v>
-      </c>
-      <c r="H17">
-        <v>3</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="K17" t="s">
         <v>83</v>
       </c>
-      <c r="J17" t="s">
+      <c r="L17" t="s">
         <v>84</v>
       </c>
-      <c r="K17" t="s">
+      <c r="U17" t="s">
         <v>85</v>
       </c>
-      <c r="T17" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" t="b">
-        <v>0</v>
-      </c>
-      <c r="F18" t="s">
-        <v>87</v>
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>113</v>
-      </c>
-      <c r="H18">
-        <v>3</v>
-      </c>
-      <c r="I18" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" t="s">
+        <v>112</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+      <c r="J18" t="s">
+        <v>83</v>
+      </c>
+      <c r="K18" t="s">
         <v>84</v>
       </c>
-      <c r="J18" t="s">
-        <v>85</v>
-      </c>
-      <c r="K18" t="s">
-        <v>91</v>
-      </c>
-      <c r="T18" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="L18" t="s">
+        <v>90</v>
+      </c>
+      <c r="U18" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F19" t="s">
-        <v>88</v>
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>112</v>
-      </c>
-      <c r="H19">
-        <v>3</v>
-      </c>
-      <c r="I19" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" t="s">
+        <v>111</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+      <c r="J19" t="s">
+        <v>91</v>
+      </c>
+      <c r="K19" t="s">
         <v>92</v>
       </c>
-      <c r="J19" t="s">
+      <c r="L19" t="s">
         <v>93</v>
       </c>
-      <c r="K19" t="s">
-        <v>94</v>
-      </c>
-      <c r="T19" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="U19" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" t="b">
-        <v>0</v>
-      </c>
-      <c r="F20" t="s">
-        <v>89</v>
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>115</v>
-      </c>
-      <c r="H20">
-        <v>3</v>
-      </c>
-      <c r="I20" t="s">
+        <v>88</v>
+      </c>
+      <c r="H20" t="s">
+        <v>114</v>
+      </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
+      <c r="J20" t="s">
+        <v>94</v>
+      </c>
+      <c r="K20" t="s">
         <v>95</v>
       </c>
-      <c r="J20" t="s">
+      <c r="L20" t="s">
         <v>96</v>
       </c>
-      <c r="K20" t="s">
-        <v>97</v>
-      </c>
-      <c r="T20" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="U20" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" t="b">
-        <v>0</v>
-      </c>
-      <c r="F21" t="s">
-        <v>90</v>
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>116</v>
-      </c>
-      <c r="H21">
-        <v>3</v>
-      </c>
-      <c r="I21" t="s">
+        <v>89</v>
+      </c>
+      <c r="H21" t="s">
+        <v>115</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21" t="s">
+        <v>97</v>
+      </c>
+      <c r="K21" t="s">
         <v>98</v>
       </c>
-      <c r="J21" t="s">
+      <c r="L21" t="s">
         <v>99</v>
       </c>
-      <c r="K21" t="s">
-        <v>100</v>
-      </c>
-      <c r="T21" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z21">
+      <c r="U21" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>3</v>
-      </c>
-      <c r="C22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D22" t="b">
-        <v>0</v>
-      </c>
-      <c r="F22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>116</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="J22" t="s">
         <v>117</v>
       </c>
-      <c r="H22">
-        <v>3</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="K22" t="s">
         <v>118</v>
       </c>
-      <c r="J22" t="s">
+      <c r="L22" t="s">
+        <v>64</v>
+      </c>
+      <c r="O22" t="s">
         <v>119</v>
       </c>
-      <c r="K22" t="s">
-        <v>65</v>
-      </c>
-      <c r="N22" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>3</v>
-      </c>
-      <c r="C23" t="s">
-        <v>105</v>
-      </c>
-      <c r="D23" t="b">
-        <v>0</v>
-      </c>
-      <c r="F23" t="s">
-        <v>117</v>
-      </c>
-      <c r="H23">
-        <v>3</v>
-      </c>
-      <c r="I23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+      <c r="J23" t="s">
+        <v>123</v>
+      </c>
+      <c r="K23" t="s">
+        <v>63</v>
+      </c>
+      <c r="L23" t="s">
         <v>124</v>
       </c>
-      <c r="J23" t="s">
-        <v>64</v>
-      </c>
-      <c r="K23" t="s">
-        <v>125</v>
-      </c>
-      <c r="N23" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="O23" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>3</v>
-      </c>
-      <c r="C24" t="s">
-        <v>105</v>
-      </c>
-      <c r="D24" t="b">
-        <v>0</v>
-      </c>
-      <c r="F24" t="s">
-        <v>117</v>
-      </c>
-      <c r="H24">
-        <v>3</v>
-      </c>
-      <c r="I24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>116</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+      <c r="J24" t="s">
+        <v>125</v>
+      </c>
+      <c r="K24" t="s">
         <v>126</v>
       </c>
-      <c r="J24" t="s">
-        <v>127</v>
-      </c>
-      <c r="K24" t="s">
-        <v>62</v>
-      </c>
-      <c r="N24" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z24">
+      <c r="L24" t="s">
+        <v>61</v>
+      </c>
+      <c r="O24" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>3</v>
-      </c>
-      <c r="C25" t="s">
-        <v>105</v>
-      </c>
-      <c r="D25" t="b">
-        <v>0</v>
-      </c>
-      <c r="F25" t="s">
-        <v>117</v>
-      </c>
-      <c r="H25">
-        <v>3</v>
-      </c>
-      <c r="I25" t="s">
-        <v>63</v>
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>116</v>
+      </c>
+      <c r="I25">
+        <v>3</v>
       </c>
       <c r="J25" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="K25" t="s">
-        <v>66</v>
-      </c>
-      <c r="N25" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+      <c r="L25" t="s">
+        <v>65</v>
+      </c>
+      <c r="O25" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>3</v>
-      </c>
-      <c r="C26" t="s">
-        <v>105</v>
-      </c>
-      <c r="D26" t="b">
-        <v>0</v>
-      </c>
-      <c r="F26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
+        <v>128</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="J26" t="s">
         <v>129</v>
       </c>
-      <c r="H26">
-        <v>3</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="K26" t="s">
         <v>130</v>
       </c>
-      <c r="J26" t="s">
+      <c r="L26" t="s">
         <v>131</v>
       </c>
-      <c r="K26" t="s">
-        <v>132</v>
-      </c>
-      <c r="N26" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="O26" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>3</v>
-      </c>
-      <c r="C27" t="s">
-        <v>105</v>
-      </c>
-      <c r="D27" t="b">
-        <v>0</v>
-      </c>
-      <c r="F27" t="s">
-        <v>129</v>
-      </c>
-      <c r="H27">
-        <v>3</v>
-      </c>
-      <c r="I27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>128</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+      <c r="J27" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" t="s">
         <v>64</v>
       </c>
-      <c r="J27" t="s">
-        <v>65</v>
-      </c>
-      <c r="K27" t="s">
-        <v>133</v>
-      </c>
-      <c r="N27" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="L27" t="s">
+        <v>132</v>
+      </c>
+      <c r="O27" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>3</v>
-      </c>
-      <c r="C28" t="s">
-        <v>105</v>
-      </c>
-      <c r="D28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F28" t="s">
-        <v>129</v>
-      </c>
-      <c r="H28">
-        <v>3</v>
-      </c>
-      <c r="I28" t="s">
-        <v>131</v>
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>128</v>
+      </c>
+      <c r="I28">
+        <v>3</v>
       </c>
       <c r="J28" t="s">
+        <v>130</v>
+      </c>
+      <c r="K28" t="s">
+        <v>133</v>
+      </c>
+      <c r="L28" t="s">
         <v>134</v>
       </c>
-      <c r="K28" t="s">
-        <v>135</v>
-      </c>
-      <c r="N28" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="O28" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>3</v>
-      </c>
-      <c r="C29" t="s">
-        <v>105</v>
-      </c>
-      <c r="D29" t="b">
-        <v>0</v>
-      </c>
-      <c r="F29" t="s">
-        <v>129</v>
-      </c>
-      <c r="H29">
-        <v>3</v>
-      </c>
-      <c r="I29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>128</v>
+      </c>
+      <c r="I29">
+        <v>3</v>
+      </c>
+      <c r="J29" t="s">
+        <v>135</v>
+      </c>
+      <c r="K29" t="s">
         <v>136</v>
       </c>
-      <c r="J29" t="s">
+      <c r="L29" t="s">
         <v>137</v>
       </c>
-      <c r="K29" t="s">
-        <v>138</v>
-      </c>
-      <c r="N29" t="s">
-        <v>142</v>
-      </c>
-      <c r="Z29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="O29" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
         <v>4</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
+        <v>142</v>
+      </c>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
         <v>143</v>
       </c>
-      <c r="D30" t="b">
-        <v>0</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="I30">
+        <v>3</v>
+      </c>
+      <c r="O30" t="s">
         <v>144</v>
       </c>
-      <c r="H30">
-        <v>3</v>
-      </c>
-      <c r="N30" t="s">
-        <v>145</v>
-      </c>
-      <c r="O30" t="s">
+      <c r="P30" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q30" t="s">
         <v>149</v>
       </c>
-      <c r="P30" t="s">
+      <c r="R30" t="s">
         <v>150</v>
       </c>
-      <c r="Q30" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31">
         <v>4</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
+        <v>142</v>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
         <v>143</v>
       </c>
-      <c r="D31" t="b">
-        <v>0</v>
-      </c>
-      <c r="F31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H31">
-        <v>3</v>
-      </c>
-      <c r="N31" t="s">
-        <v>146</v>
+      <c r="I31">
+        <v>3</v>
       </c>
       <c r="O31" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="P31" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="Q31" t="s">
-        <v>158</v>
-      </c>
-      <c r="Z31">
+        <v>154</v>
+      </c>
+      <c r="R31" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32">
         <v>4</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
+        <v>142</v>
+      </c>
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
         <v>143</v>
       </c>
-      <c r="D32" t="b">
-        <v>0</v>
-      </c>
-      <c r="F32" t="s">
-        <v>144</v>
-      </c>
-      <c r="H32">
-        <v>3</v>
-      </c>
-      <c r="N32" t="s">
-        <v>147</v>
+      <c r="I32">
+        <v>3</v>
       </c>
       <c r="O32" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="P32" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="Q32" t="s">
-        <v>159</v>
-      </c>
-      <c r="Z32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+      <c r="R32" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33">
         <v>4</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
+        <v>142</v>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
         <v>143</v>
       </c>
-      <c r="D33" t="b">
-        <v>0</v>
-      </c>
-      <c r="F33" t="s">
-        <v>144</v>
-      </c>
-      <c r="H33">
-        <v>3</v>
-      </c>
-      <c r="N33" t="s">
-        <v>148</v>
+      <c r="I33">
+        <v>3</v>
       </c>
       <c r="O33" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="P33" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Q33" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z33">
+        <v>156</v>
+      </c>
+      <c r="R33" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
         <v>5</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>160</v>
+      </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" t="s">
         <v>161</v>
       </c>
-      <c r="D34" t="b">
-        <v>0</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="I34">
+        <v>3</v>
+      </c>
+      <c r="P34" t="s">
         <v>162</v>
       </c>
-      <c r="H34">
-        <v>3</v>
-      </c>
-      <c r="O34" t="s">
-        <v>163</v>
-      </c>
-      <c r="P34" t="s">
-        <v>165</v>
-      </c>
       <c r="Q34" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+      <c r="R34" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
         <v>5</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
+        <v>160</v>
+      </c>
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
         <v>161</v>
       </c>
-      <c r="D35" t="b">
-        <v>0</v>
-      </c>
-      <c r="F35" t="s">
-        <v>162</v>
-      </c>
-      <c r="H35">
-        <v>3</v>
-      </c>
-      <c r="O35" t="s">
-        <v>164</v>
+      <c r="I35">
+        <v>3</v>
       </c>
       <c r="P35" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="Q35" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+      <c r="R35" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>3</v>
-      </c>
-      <c r="C36" t="s">
-        <v>105</v>
-      </c>
-      <c r="D36" t="b">
-        <v>0</v>
-      </c>
-      <c r="F36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E36" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
+        <v>168</v>
+      </c>
+      <c r="I36">
+        <v>3</v>
+      </c>
+      <c r="J36" t="s">
         <v>169</v>
       </c>
-      <c r="H36">
-        <v>3</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="K36" t="s">
+        <v>84</v>
+      </c>
+      <c r="L36" t="s">
+        <v>90</v>
+      </c>
+      <c r="O36" t="s">
         <v>170</v>
       </c>
-      <c r="J36" t="s">
-        <v>85</v>
-      </c>
-      <c r="K36" t="s">
-        <v>91</v>
-      </c>
-      <c r="N36" t="s">
-        <v>171</v>
-      </c>
-      <c r="Z36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>3</v>
-      </c>
-      <c r="C37" t="s">
-        <v>105</v>
-      </c>
-      <c r="D37" t="b">
-        <v>0</v>
-      </c>
-      <c r="F37" t="s">
-        <v>169</v>
-      </c>
-      <c r="H37">
-        <v>3</v>
-      </c>
-      <c r="I37" t="s">
-        <v>95</v>
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
+        <v>168</v>
+      </c>
+      <c r="I37">
+        <v>3</v>
       </c>
       <c r="J37" t="s">
+        <v>94</v>
+      </c>
+      <c r="K37" t="s">
+        <v>171</v>
+      </c>
+      <c r="L37" t="s">
         <v>172</v>
       </c>
-      <c r="K37" t="s">
-        <v>173</v>
-      </c>
-      <c r="N37" t="s">
-        <v>180</v>
-      </c>
-      <c r="Z37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="O37" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>3</v>
-      </c>
-      <c r="C38" t="s">
-        <v>105</v>
-      </c>
-      <c r="D38" t="b">
-        <v>0</v>
-      </c>
-      <c r="F38" t="s">
-        <v>169</v>
-      </c>
-      <c r="H38">
-        <v>3</v>
-      </c>
-      <c r="I38" t="s">
-        <v>174</v>
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" t="s">
+        <v>168</v>
+      </c>
+      <c r="I38">
+        <v>3</v>
       </c>
       <c r="J38" t="s">
-        <v>84</v>
+        <v>173</v>
       </c>
       <c r="K38" t="s">
-        <v>91</v>
-      </c>
-      <c r="N38" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="L38" t="s">
+        <v>90</v>
+      </c>
+      <c r="O38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AA38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>3</v>
-      </c>
-      <c r="C39" t="s">
-        <v>105</v>
-      </c>
-      <c r="D39" t="b">
-        <v>0</v>
-      </c>
-      <c r="F39" t="s">
-        <v>169</v>
-      </c>
-      <c r="H39">
-        <v>3</v>
-      </c>
-      <c r="I39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39" t="s">
+        <v>104</v>
+      </c>
+      <c r="E39" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" t="s">
+        <v>168</v>
+      </c>
+      <c r="I39">
+        <v>3</v>
+      </c>
+      <c r="J39" t="s">
+        <v>97</v>
+      </c>
+      <c r="K39" t="s">
         <v>98</v>
       </c>
-      <c r="J39" t="s">
-        <v>99</v>
-      </c>
-      <c r="K39" t="s">
-        <v>175</v>
-      </c>
-      <c r="N39" t="s">
-        <v>182</v>
-      </c>
-      <c r="Z39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="L39" t="s">
+        <v>174</v>
+      </c>
+      <c r="O39" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
-        <v>3</v>
-      </c>
-      <c r="C40" t="s">
-        <v>105</v>
-      </c>
-      <c r="D40" t="b">
-        <v>0</v>
-      </c>
-      <c r="F40" t="s">
-        <v>169</v>
-      </c>
-      <c r="H40">
-        <v>3</v>
-      </c>
-      <c r="I40" t="s">
-        <v>100</v>
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>104</v>
+      </c>
+      <c r="E40" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" t="s">
+        <v>168</v>
+      </c>
+      <c r="I40">
+        <v>3</v>
       </c>
       <c r="J40" t="s">
+        <v>99</v>
+      </c>
+      <c r="K40" t="s">
+        <v>175</v>
+      </c>
+      <c r="L40" t="s">
         <v>176</v>
       </c>
-      <c r="K40" t="s">
-        <v>177</v>
-      </c>
-      <c r="N40" t="s">
-        <v>183</v>
-      </c>
-      <c r="Z40">
+      <c r="O40" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
-        <v>3</v>
-      </c>
-      <c r="C41" t="s">
-        <v>105</v>
-      </c>
-      <c r="D41" t="b">
-        <v>0</v>
-      </c>
-      <c r="F41" t="s">
-        <v>169</v>
-      </c>
-      <c r="H41">
-        <v>3</v>
-      </c>
-      <c r="I41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" t="s">
+        <v>168</v>
+      </c>
+      <c r="I41">
+        <v>3</v>
+      </c>
+      <c r="J41" t="s">
+        <v>177</v>
+      </c>
+      <c r="K41" t="s">
         <v>178</v>
       </c>
-      <c r="J41" t="s">
-        <v>179</v>
-      </c>
-      <c r="K41" t="s">
-        <v>100</v>
-      </c>
-      <c r="N41" t="s">
-        <v>184</v>
-      </c>
-      <c r="Z41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="L41" t="s">
+        <v>99</v>
+      </c>
+      <c r="O41" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
-        <v>3</v>
-      </c>
-      <c r="C42" t="s">
-        <v>105</v>
-      </c>
-      <c r="D42" t="b">
-        <v>0</v>
-      </c>
-      <c r="F42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42" t="s">
+        <v>104</v>
+      </c>
+      <c r="E42" t="b">
+        <v>0</v>
+      </c>
+      <c r="G42" t="s">
+        <v>184</v>
+      </c>
+      <c r="I42">
+        <v>3</v>
+      </c>
+      <c r="J42" t="s">
         <v>185</v>
       </c>
-      <c r="H42">
-        <v>3</v>
-      </c>
-      <c r="I42" t="s">
+      <c r="K42" t="s">
         <v>186</v>
       </c>
-      <c r="J42" t="s">
+      <c r="L42" t="s">
         <v>187</v>
       </c>
-      <c r="K42" t="s">
-        <v>188</v>
-      </c>
-      <c r="N42" t="s">
-        <v>195</v>
-      </c>
-      <c r="Z42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="O42" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
-        <v>3</v>
-      </c>
-      <c r="C43" t="s">
-        <v>105</v>
-      </c>
-      <c r="D43" t="b">
-        <v>0</v>
-      </c>
-      <c r="F43" t="s">
-        <v>185</v>
-      </c>
-      <c r="H43">
-        <v>3</v>
-      </c>
-      <c r="I43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43" t="s">
+        <v>104</v>
+      </c>
+      <c r="E43" t="b">
+        <v>0</v>
+      </c>
+      <c r="G43" t="s">
+        <v>184</v>
+      </c>
+      <c r="I43">
+        <v>3</v>
+      </c>
+      <c r="J43" t="s">
+        <v>188</v>
+      </c>
+      <c r="K43" t="s">
         <v>189</v>
       </c>
-      <c r="J43" t="s">
+      <c r="L43" t="s">
         <v>190</v>
       </c>
-      <c r="K43" t="s">
-        <v>191</v>
-      </c>
-      <c r="N43" t="s">
-        <v>196</v>
-      </c>
-      <c r="Z43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="O43" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
-        <v>3</v>
-      </c>
-      <c r="C44" t="s">
-        <v>105</v>
-      </c>
-      <c r="D44" t="b">
-        <v>0</v>
-      </c>
-      <c r="F44" t="s">
-        <v>185</v>
-      </c>
-      <c r="H44">
-        <v>3</v>
-      </c>
-      <c r="I44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44" t="s">
+        <v>104</v>
+      </c>
+      <c r="E44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G44" t="s">
+        <v>184</v>
+      </c>
+      <c r="I44">
+        <v>3</v>
+      </c>
+      <c r="J44" t="s">
+        <v>191</v>
+      </c>
+      <c r="K44" t="s">
         <v>192</v>
       </c>
-      <c r="J44" t="s">
+      <c r="L44" t="s">
         <v>193</v>
       </c>
-      <c r="K44" t="s">
-        <v>194</v>
-      </c>
-      <c r="N44" t="s">
-        <v>197</v>
-      </c>
-      <c r="Z44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="O44" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
+        <v>10</v>
+      </c>
+      <c r="C45">
         <v>6</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
+        <v>197</v>
+      </c>
+      <c r="E45" t="b">
+        <v>0</v>
+      </c>
+      <c r="G45" t="s">
+        <v>207</v>
+      </c>
+      <c r="H45" t="s">
         <v>198</v>
       </c>
-      <c r="D45" t="b">
-        <v>0</v>
-      </c>
-      <c r="F45" t="s">
-        <v>208</v>
-      </c>
-      <c r="G45" t="s">
+      <c r="I45">
+        <v>3</v>
+      </c>
+      <c r="J45" t="s">
         <v>199</v>
       </c>
-      <c r="H45">
-        <v>3</v>
-      </c>
-      <c r="I45" t="s">
+      <c r="K45" t="s">
         <v>200</v>
       </c>
-      <c r="J45" t="s">
+      <c r="L45" t="s">
         <v>201</v>
       </c>
-      <c r="K45" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z45">
+      <c r="AA45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
+        <v>10</v>
+      </c>
+      <c r="C46">
         <v>6</v>
       </c>
-      <c r="C46" t="s">
-        <v>198</v>
-      </c>
-      <c r="D46" t="b">
-        <v>0</v>
-      </c>
-      <c r="F46" t="s">
+      <c r="D46" t="s">
+        <v>197</v>
+      </c>
+      <c r="E46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G46" t="s">
+        <v>205</v>
+      </c>
+      <c r="H46" t="s">
         <v>206</v>
       </c>
-      <c r="G46" t="s">
-        <v>207</v>
-      </c>
-      <c r="H46">
-        <v>3</v>
-      </c>
-      <c r="I46" t="s">
+      <c r="I46">
+        <v>3</v>
+      </c>
+      <c r="J46" t="s">
+        <v>202</v>
+      </c>
+      <c r="K46" t="s">
         <v>203</v>
       </c>
-      <c r="J46" t="s">
+      <c r="L46" t="s">
         <v>204</v>
       </c>
-      <c r="K46" t="s">
-        <v>205</v>
-      </c>
-      <c r="Z46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
+        <v>10</v>
+      </c>
+      <c r="C47">
         <v>6</v>
       </c>
-      <c r="C47" t="s">
-        <v>198</v>
-      </c>
-      <c r="D47" t="b">
-        <v>0</v>
-      </c>
-      <c r="F47" t="s">
+      <c r="D47" t="s">
+        <v>197</v>
+      </c>
+      <c r="E47" t="b">
+        <v>0</v>
+      </c>
+      <c r="G47" t="s">
+        <v>207</v>
+      </c>
+      <c r="H47" t="s">
         <v>208</v>
       </c>
-      <c r="G47" t="s">
+      <c r="I47">
+        <v>3</v>
+      </c>
+      <c r="J47" t="s">
         <v>209</v>
       </c>
-      <c r="H47">
-        <v>3</v>
-      </c>
-      <c r="I47" t="s">
+      <c r="K47" t="s">
         <v>210</v>
       </c>
-      <c r="J47" t="s">
+      <c r="L47" t="s">
         <v>211</v>
       </c>
-      <c r="K47" t="s">
-        <v>212</v>
-      </c>
-      <c r="Z47">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
+        <v>10</v>
+      </c>
+      <c r="C48">
         <v>6</v>
       </c>
-      <c r="C48" t="s">
-        <v>198</v>
-      </c>
-      <c r="D48" t="b">
-        <v>0</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="D48" t="s">
+        <v>197</v>
+      </c>
+      <c r="E48" t="b">
+        <v>0</v>
+      </c>
+      <c r="G48" t="s">
+        <v>212</v>
+      </c>
+      <c r="H48" t="s">
         <v>213</v>
       </c>
-      <c r="G48" t="s">
+      <c r="I48">
+        <v>3</v>
+      </c>
+      <c r="J48" t="s">
         <v>214</v>
       </c>
-      <c r="H48">
-        <v>3</v>
-      </c>
-      <c r="I48" t="s">
+      <c r="K48" t="s">
         <v>215</v>
       </c>
-      <c r="J48" t="s">
+      <c r="L48" t="s">
         <v>216</v>
       </c>
-      <c r="K48" t="s">
-        <v>217</v>
-      </c>
-      <c r="Z48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
+        <v>10</v>
+      </c>
+      <c r="C49">
         <v>6</v>
       </c>
-      <c r="C49" t="s">
-        <v>198</v>
-      </c>
-      <c r="D49" t="b">
-        <v>0</v>
-      </c>
-      <c r="F49" t="s">
-        <v>208</v>
+      <c r="D49" t="s">
+        <v>197</v>
+      </c>
+      <c r="E49" t="b">
+        <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>218</v>
-      </c>
-      <c r="H49">
-        <v>3</v>
-      </c>
-      <c r="I49" t="s">
+        <v>207</v>
+      </c>
+      <c r="H49" t="s">
+        <v>217</v>
+      </c>
+      <c r="I49">
+        <v>3</v>
+      </c>
+      <c r="J49" t="s">
+        <v>219</v>
+      </c>
+      <c r="K49" t="s">
         <v>220</v>
       </c>
-      <c r="J49" t="s">
+      <c r="L49" t="s">
         <v>221</v>
       </c>
-      <c r="K49" t="s">
-        <v>222</v>
-      </c>
-      <c r="Z49">
+      <c r="AA49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
+        <v>10</v>
+      </c>
+      <c r="C50">
         <v>6</v>
       </c>
-      <c r="C50" t="s">
-        <v>198</v>
-      </c>
-      <c r="D50" t="b">
-        <v>0</v>
-      </c>
-      <c r="F50" t="s">
-        <v>208</v>
+      <c r="D50" t="s">
+        <v>197</v>
+      </c>
+      <c r="E50" t="b">
+        <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>226</v>
-      </c>
-      <c r="H50">
-        <v>3</v>
-      </c>
-      <c r="I50" t="s">
+        <v>207</v>
+      </c>
+      <c r="H50" t="s">
+        <v>225</v>
+      </c>
+      <c r="I50">
+        <v>3</v>
+      </c>
+      <c r="J50" t="s">
+        <v>222</v>
+      </c>
+      <c r="K50" t="s">
         <v>223</v>
       </c>
-      <c r="J50" t="s">
+      <c r="L50" t="s">
         <v>224</v>
       </c>
-      <c r="K50" t="s">
-        <v>225</v>
-      </c>
-      <c r="Z50">
+      <c r="AA50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
+        <v>10</v>
+      </c>
+      <c r="C51">
         <v>6</v>
       </c>
-      <c r="C51" t="s">
-        <v>198</v>
-      </c>
-      <c r="D51" t="b">
-        <v>0</v>
-      </c>
-      <c r="F51" t="s">
-        <v>208</v>
+      <c r="D51" t="s">
+        <v>197</v>
+      </c>
+      <c r="E51" t="b">
+        <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>219</v>
-      </c>
-      <c r="H51">
-        <v>3</v>
-      </c>
-      <c r="I51" t="s">
+        <v>207</v>
+      </c>
+      <c r="H51" t="s">
+        <v>218</v>
+      </c>
+      <c r="I51">
+        <v>3</v>
+      </c>
+      <c r="J51" t="s">
+        <v>226</v>
+      </c>
+      <c r="K51" t="s">
         <v>227</v>
       </c>
-      <c r="J51" t="s">
+      <c r="L51" t="s">
         <v>228</v>
       </c>
-      <c r="K51" t="s">
-        <v>229</v>
-      </c>
-      <c r="Z51">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52">
+        <v>5</v>
+      </c>
+      <c r="C52">
         <v>6</v>
       </c>
-      <c r="C52" t="s">
-        <v>198</v>
-      </c>
-      <c r="D52" t="b">
+      <c r="D52" t="s">
+        <v>197</v>
+      </c>
+      <c r="E52" t="b">
         <v>1</v>
-      </c>
-      <c r="E52" t="s">
-        <v>235</v>
       </c>
       <c r="F52" t="s">
         <v>234</v>
       </c>
       <c r="G52" t="s">
+        <v>233</v>
+      </c>
+      <c r="H52" t="s">
+        <v>229</v>
+      </c>
+      <c r="I52">
+        <v>3</v>
+      </c>
+      <c r="J52" t="s">
         <v>230</v>
       </c>
-      <c r="H52">
-        <v>3</v>
-      </c>
-      <c r="I52" t="s">
+      <c r="K52" t="s">
         <v>231</v>
       </c>
-      <c r="J52" t="s">
+      <c r="L52" t="s">
         <v>232</v>
       </c>
-      <c r="K52" t="s">
-        <v>233</v>
-      </c>
-      <c r="Z52">
+      <c r="AA52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
+        <v>5</v>
+      </c>
+      <c r="C53">
         <v>6</v>
       </c>
-      <c r="C53" t="s">
-        <v>198</v>
-      </c>
-      <c r="D53" t="b">
+      <c r="D53" t="s">
+        <v>197</v>
+      </c>
+      <c r="E53" t="b">
         <v>1</v>
-      </c>
-      <c r="E53" t="s">
-        <v>235</v>
       </c>
       <c r="F53" t="s">
         <v>234</v>
       </c>
       <c r="G53" t="s">
+        <v>233</v>
+      </c>
+      <c r="H53" t="s">
+        <v>235</v>
+      </c>
+      <c r="I53">
+        <v>3</v>
+      </c>
+      <c r="J53" t="s">
         <v>236</v>
       </c>
-      <c r="H53">
-        <v>3</v>
-      </c>
-      <c r="I53" t="s">
+      <c r="K53" t="s">
         <v>237</v>
       </c>
-      <c r="J53" t="s">
+      <c r="L53" t="s">
         <v>238</v>
       </c>
-      <c r="K53" t="s">
-        <v>239</v>
-      </c>
-      <c r="Z53">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54">
+        <v>5</v>
+      </c>
+      <c r="C54">
         <v>6</v>
       </c>
-      <c r="C54" t="s">
-        <v>198</v>
-      </c>
-      <c r="D54" t="b">
+      <c r="D54" t="s">
+        <v>197</v>
+      </c>
+      <c r="E54" t="b">
         <v>1</v>
-      </c>
-      <c r="E54" t="s">
-        <v>235</v>
       </c>
       <c r="F54" t="s">
         <v>234</v>
       </c>
       <c r="G54" t="s">
+        <v>233</v>
+      </c>
+      <c r="H54" t="s">
+        <v>239</v>
+      </c>
+      <c r="I54">
+        <v>3</v>
+      </c>
+      <c r="J54" t="s">
         <v>240</v>
       </c>
-      <c r="H54">
-        <v>3</v>
-      </c>
-      <c r="I54" t="s">
+      <c r="K54" t="s">
         <v>241</v>
       </c>
-      <c r="J54" t="s">
+      <c r="L54" t="s">
         <v>242</v>
       </c>
-      <c r="K54" t="s">
-        <v>243</v>
-      </c>
-      <c r="Z54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="C55">
         <v>6</v>
       </c>
-      <c r="C55" t="s">
-        <v>198</v>
-      </c>
-      <c r="D55" t="b">
+      <c r="D55" t="s">
+        <v>197</v>
+      </c>
+      <c r="E55" t="b">
         <v>1</v>
-      </c>
-      <c r="E55" t="s">
-        <v>235</v>
       </c>
       <c r="F55" t="s">
         <v>234</v>
       </c>
       <c r="G55" t="s">
+        <v>233</v>
+      </c>
+      <c r="H55" t="s">
+        <v>243</v>
+      </c>
+      <c r="I55">
+        <v>3</v>
+      </c>
+      <c r="J55" t="s">
         <v>244</v>
       </c>
-      <c r="H55">
-        <v>3</v>
-      </c>
-      <c r="I55" t="s">
+      <c r="K55" t="s">
         <v>245</v>
       </c>
-      <c r="J55" t="s">
+      <c r="L55" t="s">
         <v>246</v>
       </c>
-      <c r="K55" t="s">
-        <v>247</v>
-      </c>
-      <c r="Z55">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
+        <v>5</v>
+      </c>
+      <c r="C56">
         <v>6</v>
       </c>
-      <c r="C56" t="s">
-        <v>198</v>
-      </c>
-      <c r="D56" t="b">
+      <c r="D56" t="s">
+        <v>197</v>
+      </c>
+      <c r="E56" t="b">
         <v>1</v>
-      </c>
-      <c r="E56" t="s">
-        <v>235</v>
       </c>
       <c r="F56" t="s">
         <v>234</v>
       </c>
       <c r="G56" t="s">
+        <v>233</v>
+      </c>
+      <c r="H56" t="s">
+        <v>247</v>
+      </c>
+      <c r="I56">
+        <v>3</v>
+      </c>
+      <c r="J56" t="s">
         <v>248</v>
       </c>
-      <c r="H56">
-        <v>3</v>
-      </c>
-      <c r="I56" t="s">
+      <c r="K56" t="s">
         <v>249</v>
       </c>
-      <c r="J56" t="s">
+      <c r="L56" t="s">
         <v>250</v>
       </c>
-      <c r="K56" t="s">
-        <v>251</v>
-      </c>
-      <c r="Z56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57">
+        <v>5</v>
+      </c>
+      <c r="C57">
         <v>6</v>
       </c>
-      <c r="C57" t="s">
-        <v>198</v>
-      </c>
-      <c r="D57" t="b">
+      <c r="D57" t="s">
+        <v>197</v>
+      </c>
+      <c r="E57" t="b">
         <v>1</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="F57" t="s">
+      <c r="F57" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G57" t="s">
+        <v>251</v>
+      </c>
+      <c r="H57" t="s">
         <v>252</v>
       </c>
-      <c r="G57" t="s">
-        <v>253</v>
-      </c>
-      <c r="H57">
-        <v>3</v>
-      </c>
-      <c r="I57" t="s">
+      <c r="I57">
+        <v>3</v>
+      </c>
+      <c r="J57" t="s">
+        <v>258</v>
+      </c>
+      <c r="K57" t="s">
         <v>259</v>
       </c>
-      <c r="J57" t="s">
+      <c r="L57" t="s">
         <v>260</v>
       </c>
-      <c r="K57" t="s">
-        <v>261</v>
-      </c>
-      <c r="Z57">
+      <c r="AA57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58">
+        <v>5</v>
+      </c>
+      <c r="C58">
         <v>6</v>
       </c>
-      <c r="C58" t="s">
-        <v>198</v>
-      </c>
-      <c r="D58" t="b">
+      <c r="D58" t="s">
+        <v>197</v>
+      </c>
+      <c r="E58" t="b">
         <v>1</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="F58" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G58" t="s">
+        <v>251</v>
+      </c>
+      <c r="H58" t="s">
         <v>254</v>
       </c>
-      <c r="F58" t="s">
-        <v>252</v>
-      </c>
-      <c r="G58" t="s">
-        <v>255</v>
-      </c>
-      <c r="H58">
-        <v>3</v>
-      </c>
-      <c r="I58" t="s">
+      <c r="I58">
+        <v>3</v>
+      </c>
+      <c r="J58" t="s">
+        <v>261</v>
+      </c>
+      <c r="K58" t="s">
         <v>262</v>
       </c>
-      <c r="J58" t="s">
+      <c r="L58" t="s">
         <v>263</v>
       </c>
-      <c r="K58" t="s">
-        <v>264</v>
-      </c>
-      <c r="Z58">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59">
+        <v>5</v>
+      </c>
+      <c r="C59">
         <v>6</v>
       </c>
-      <c r="C59" t="s">
-        <v>198</v>
-      </c>
-      <c r="D59" t="b">
+      <c r="D59" t="s">
+        <v>197</v>
+      </c>
+      <c r="E59" t="b">
         <v>1</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="F59" t="s">
-        <v>252</v>
+      <c r="F59" s="1" t="s">
+        <v>253</v>
       </c>
       <c r="G59" t="s">
-        <v>256</v>
-      </c>
-      <c r="H59">
-        <v>3</v>
-      </c>
-      <c r="I59" t="s">
+        <v>251</v>
+      </c>
+      <c r="H59" t="s">
+        <v>255</v>
+      </c>
+      <c r="I59">
+        <v>3</v>
+      </c>
+      <c r="J59" t="s">
+        <v>264</v>
+      </c>
+      <c r="K59" t="s">
         <v>265</v>
       </c>
-      <c r="J59" t="s">
+      <c r="L59" t="s">
         <v>266</v>
       </c>
-      <c r="K59" t="s">
-        <v>267</v>
-      </c>
-      <c r="Z59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60">
+        <v>5</v>
+      </c>
+      <c r="C60">
         <v>6</v>
       </c>
-      <c r="C60" t="s">
-        <v>198</v>
-      </c>
-      <c r="D60" t="b">
+      <c r="D60" t="s">
+        <v>197</v>
+      </c>
+      <c r="E60" t="b">
         <v>1</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="F60" t="s">
-        <v>252</v>
+      <c r="F60" s="1" t="s">
+        <v>253</v>
       </c>
       <c r="G60" t="s">
-        <v>257</v>
-      </c>
-      <c r="H60">
-        <v>3</v>
-      </c>
-      <c r="I60" t="s">
+        <v>251</v>
+      </c>
+      <c r="H60" t="s">
+        <v>256</v>
+      </c>
+      <c r="I60">
+        <v>3</v>
+      </c>
+      <c r="J60" t="s">
+        <v>267</v>
+      </c>
+      <c r="K60" t="s">
         <v>268</v>
       </c>
-      <c r="J60" t="s">
+      <c r="L60" t="s">
         <v>269</v>
       </c>
-      <c r="K60" t="s">
-        <v>270</v>
-      </c>
-      <c r="Z60">
+      <c r="AA60">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61">
+        <v>5</v>
+      </c>
+      <c r="C61">
         <v>6</v>
       </c>
-      <c r="C61" t="s">
-        <v>198</v>
-      </c>
-      <c r="D61" t="b">
+      <c r="D61" t="s">
+        <v>197</v>
+      </c>
+      <c r="E61" t="b">
         <v>1</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="F61" t="s">
-        <v>252</v>
+      <c r="F61" s="1" t="s">
+        <v>253</v>
       </c>
       <c r="G61" t="s">
-        <v>258</v>
-      </c>
-      <c r="H61">
-        <v>3</v>
-      </c>
-      <c r="I61" t="s">
+        <v>251</v>
+      </c>
+      <c r="H61" t="s">
+        <v>257</v>
+      </c>
+      <c r="I61">
+        <v>3</v>
+      </c>
+      <c r="J61" t="s">
+        <v>270</v>
+      </c>
+      <c r="K61" t="s">
         <v>271</v>
       </c>
-      <c r="J61" t="s">
+      <c r="L61" t="s">
         <v>272</v>
       </c>
-      <c r="K61" t="s">
-        <v>273</v>
-      </c>
-      <c r="Z61">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62">
+        <v>5</v>
+      </c>
+      <c r="C62">
         <v>6</v>
       </c>
-      <c r="C62" t="s">
-        <v>198</v>
-      </c>
-      <c r="D62" t="b">
+      <c r="D62" t="s">
+        <v>197</v>
+      </c>
+      <c r="E62" t="b">
         <v>1</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="F62" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G62" t="s">
+        <v>273</v>
+      </c>
+      <c r="H62" t="s">
+        <v>274</v>
+      </c>
+      <c r="I62">
+        <v>3</v>
+      </c>
+      <c r="J62" t="s">
         <v>279</v>
       </c>
-      <c r="F62" t="s">
-        <v>274</v>
-      </c>
-      <c r="G62" t="s">
-        <v>275</v>
-      </c>
-      <c r="H62">
-        <v>3</v>
-      </c>
-      <c r="I62" t="s">
+      <c r="K62" t="s">
         <v>280</v>
       </c>
-      <c r="J62" t="s">
+      <c r="L62" t="s">
         <v>281</v>
       </c>
-      <c r="K62" t="s">
-        <v>282</v>
-      </c>
-      <c r="Z62">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63">
+        <v>5</v>
+      </c>
+      <c r="C63">
         <v>6</v>
       </c>
-      <c r="C63" t="s">
-        <v>198</v>
-      </c>
-      <c r="D63" t="b">
+      <c r="D63" t="s">
+        <v>197</v>
+      </c>
+      <c r="E63" t="b">
         <v>1</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="F63" t="s">
-        <v>274</v>
+      <c r="F63" s="1" t="s">
+        <v>278</v>
       </c>
       <c r="G63" t="s">
-        <v>276</v>
-      </c>
-      <c r="H63">
-        <v>3</v>
-      </c>
-      <c r="I63" t="s">
+        <v>273</v>
+      </c>
+      <c r="H63" t="s">
+        <v>275</v>
+      </c>
+      <c r="I63">
+        <v>3</v>
+      </c>
+      <c r="J63" t="s">
+        <v>282</v>
+      </c>
+      <c r="K63" t="s">
         <v>283</v>
       </c>
-      <c r="J63" t="s">
+      <c r="L63" t="s">
         <v>284</v>
       </c>
-      <c r="K63" t="s">
-        <v>285</v>
-      </c>
-      <c r="Z63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64">
+        <v>5</v>
+      </c>
+      <c r="C64">
         <v>6</v>
       </c>
-      <c r="C64" t="s">
-        <v>198</v>
-      </c>
-      <c r="D64" t="b">
+      <c r="D64" t="s">
+        <v>197</v>
+      </c>
+      <c r="E64" t="b">
         <v>1</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="F64" t="s">
-        <v>274</v>
+      <c r="F64" s="1" t="s">
+        <v>278</v>
       </c>
       <c r="G64" t="s">
-        <v>277</v>
-      </c>
-      <c r="H64">
-        <v>3</v>
-      </c>
-      <c r="I64" t="s">
+        <v>273</v>
+      </c>
+      <c r="H64" t="s">
+        <v>276</v>
+      </c>
+      <c r="I64">
+        <v>3</v>
+      </c>
+      <c r="J64" t="s">
+        <v>285</v>
+      </c>
+      <c r="K64" t="s">
         <v>286</v>
       </c>
-      <c r="J64" t="s">
+      <c r="L64" t="s">
         <v>287</v>
       </c>
-      <c r="K64" t="s">
-        <v>288</v>
-      </c>
-      <c r="Z64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65">
+        <v>5</v>
+      </c>
+      <c r="C65">
         <v>6</v>
       </c>
-      <c r="C65" t="s">
-        <v>198</v>
-      </c>
-      <c r="D65" t="b">
+      <c r="D65" t="s">
+        <v>197</v>
+      </c>
+      <c r="E65" t="b">
         <v>1</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="F65" t="s">
-        <v>274</v>
+      <c r="F65" s="1" t="s">
+        <v>278</v>
       </c>
       <c r="G65" t="s">
-        <v>278</v>
-      </c>
-      <c r="H65">
-        <v>3</v>
-      </c>
-      <c r="I65" t="s">
+        <v>273</v>
+      </c>
+      <c r="H65" t="s">
+        <v>277</v>
+      </c>
+      <c r="I65">
+        <v>3</v>
+      </c>
+      <c r="J65" t="s">
+        <v>288</v>
+      </c>
+      <c r="K65" t="s">
         <v>289</v>
       </c>
-      <c r="J65" t="s">
-        <v>290</v>
-      </c>
-      <c r="K65" t="s">
-        <v>285</v>
-      </c>
-      <c r="Z65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="L65" t="s">
+        <v>284</v>
+      </c>
+      <c r="AA65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66">
+        <v>5</v>
+      </c>
+      <c r="C66">
         <v>6</v>
       </c>
-      <c r="C66" t="s">
-        <v>198</v>
-      </c>
-      <c r="D66" t="b">
+      <c r="D66" t="s">
+        <v>197</v>
+      </c>
+      <c r="E66" t="b">
         <v>1</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="F66" t="s">
+      <c r="F66" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="G66" t="s">
+        <v>290</v>
+      </c>
+      <c r="H66" t="s">
         <v>291</v>
       </c>
-      <c r="G66" t="s">
-        <v>292</v>
-      </c>
-      <c r="H66">
-        <v>3</v>
-      </c>
-      <c r="I66" t="s">
+      <c r="I66">
+        <v>3</v>
+      </c>
+      <c r="J66" t="s">
+        <v>297</v>
+      </c>
+      <c r="K66" t="s">
         <v>298</v>
       </c>
-      <c r="J66" t="s">
+      <c r="L66" t="s">
         <v>299</v>
       </c>
-      <c r="K66" t="s">
-        <v>300</v>
-      </c>
-      <c r="Z66">
+      <c r="AA66">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67">
+        <v>5</v>
+      </c>
+      <c r="C67">
         <v>6</v>
       </c>
-      <c r="C67" t="s">
-        <v>198</v>
-      </c>
-      <c r="D67" t="b">
+      <c r="D67" t="s">
+        <v>197</v>
+      </c>
+      <c r="E67" t="b">
         <v>1</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="F67" t="s">
-        <v>291</v>
+      <c r="F67" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="G67" t="s">
-        <v>293</v>
-      </c>
-      <c r="H67">
-        <v>3</v>
-      </c>
-      <c r="I67" t="s">
+        <v>290</v>
+      </c>
+      <c r="H67" t="s">
+        <v>292</v>
+      </c>
+      <c r="I67">
+        <v>3</v>
+      </c>
+      <c r="J67" t="s">
+        <v>300</v>
+      </c>
+      <c r="K67" t="s">
         <v>301</v>
       </c>
-      <c r="J67" t="s">
+      <c r="L67" t="s">
         <v>302</v>
       </c>
-      <c r="K67" t="s">
-        <v>303</v>
-      </c>
-      <c r="Z67">
+      <c r="AA67">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68">
+        <v>5</v>
+      </c>
+      <c r="C68">
         <v>6</v>
       </c>
-      <c r="C68" t="s">
-        <v>198</v>
-      </c>
-      <c r="D68" t="b">
+      <c r="D68" t="s">
+        <v>197</v>
+      </c>
+      <c r="E68" t="b">
         <v>1</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="F68" t="s">
-        <v>291</v>
+      <c r="F68" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="G68" t="s">
-        <v>294</v>
-      </c>
-      <c r="H68">
-        <v>3</v>
-      </c>
-      <c r="I68" t="s">
+        <v>290</v>
+      </c>
+      <c r="H68" t="s">
+        <v>293</v>
+      </c>
+      <c r="I68">
+        <v>3</v>
+      </c>
+      <c r="J68" t="s">
+        <v>303</v>
+      </c>
+      <c r="K68" t="s">
         <v>304</v>
       </c>
-      <c r="J68" t="s">
+      <c r="L68" t="s">
         <v>305</v>
       </c>
-      <c r="K68" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69">
+        <v>5</v>
+      </c>
+      <c r="C69">
         <v>6</v>
       </c>
-      <c r="C69" t="s">
-        <v>198</v>
-      </c>
-      <c r="D69" t="b">
+      <c r="D69" t="s">
+        <v>197</v>
+      </c>
+      <c r="E69" t="b">
         <v>1</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="F69" t="s">
-        <v>291</v>
+      <c r="F69" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="G69" t="s">
-        <v>295</v>
-      </c>
-      <c r="H69">
-        <v>3</v>
-      </c>
-      <c r="I69" t="s">
+        <v>290</v>
+      </c>
+      <c r="H69" t="s">
+        <v>294</v>
+      </c>
+      <c r="I69">
+        <v>3</v>
+      </c>
+      <c r="J69" t="s">
+        <v>306</v>
+      </c>
+      <c r="K69" t="s">
         <v>307</v>
       </c>
-      <c r="J69" t="s">
+      <c r="L69" t="s">
         <v>308</v>
       </c>
-      <c r="K69" t="s">
-        <v>309</v>
-      </c>
-      <c r="Z69">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70">
+        <v>5</v>
+      </c>
+      <c r="C70">
         <v>6</v>
       </c>
-      <c r="C70" t="s">
-        <v>198</v>
-      </c>
-      <c r="D70" t="b">
+      <c r="D70" t="s">
+        <v>197</v>
+      </c>
+      <c r="E70" t="b">
         <v>1</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="F70" t="s">
-        <v>291</v>
+      <c r="F70" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="G70" t="s">
-        <v>296</v>
-      </c>
-      <c r="H70">
-        <v>3</v>
-      </c>
-      <c r="I70" t="s">
+        <v>290</v>
+      </c>
+      <c r="H70" t="s">
+        <v>295</v>
+      </c>
+      <c r="I70">
+        <v>3</v>
+      </c>
+      <c r="J70" t="s">
+        <v>309</v>
+      </c>
+      <c r="K70" t="s">
         <v>310</v>
       </c>
-      <c r="J70" t="s">
+      <c r="L70" t="s">
         <v>311</v>
       </c>
-      <c r="K70" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z70">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71">
+        <v>5</v>
+      </c>
+      <c r="C71">
         <v>6</v>
       </c>
-      <c r="C71" t="s">
-        <v>198</v>
-      </c>
-      <c r="D71" t="b">
+      <c r="D71" t="s">
+        <v>197</v>
+      </c>
+      <c r="E71" t="b">
         <v>1</v>
       </c>
-      <c r="E71" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="F71" t="s">
-        <v>291</v>
+      <c r="F71" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="G71" t="s">
-        <v>297</v>
-      </c>
-      <c r="H71">
-        <v>3</v>
-      </c>
-      <c r="I71" t="s">
+        <v>290</v>
+      </c>
+      <c r="H71" t="s">
+        <v>296</v>
+      </c>
+      <c r="I71">
+        <v>3</v>
+      </c>
+      <c r="J71" t="s">
+        <v>312</v>
+      </c>
+      <c r="K71" t="s">
         <v>313</v>
       </c>
-      <c r="J71" t="s">
+      <c r="L71" t="s">
         <v>314</v>
       </c>
-      <c r="K71" t="s">
-        <v>315</v>
-      </c>
-      <c r="Z71">
+      <c r="AA71">
         <v>2</v>
       </c>
     </row>
@@ -4294,9 +4507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
